--- a/fhir/finnish-smart/StructureDefinition-fi-smart-patient.xlsx
+++ b/fhir/finnish-smart/StructureDefinition-fi-smart-patient.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$93</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3500" uniqueCount="590">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-rc1</t>
+    <t>2.0.0-rc2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T22:29:11+02:00</t>
+    <t>2025-05-11T17:07:13+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -867,6 +870,10 @@
     <t>When using the official Finnish personal identifier code (PIC, also known as HETU), identifier.system SHALL be urn:oid:1.2.246.21.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ipa-pat-1:At least one of Patient.identifier.system or Patient.identifier.type or Patient.identifier.assigner SHALL be present {system.exists() or type.exists() or assigner.exists()}</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -879,33 +886,12 @@
     <t>PID-3</t>
   </si>
   <si>
-    <t>Patient.identifier:PIC</t>
-  </si>
-  <si>
-    <t>PIC</t>
-  </si>
-  <si>
-    <t>An identifier for this patient</t>
-  </si>
-  <si>
-    <t>An identifier for this patient.</t>
-  </si>
-  <si>
-    <t>Patient.identifier:PIC.id</t>
-  </si>
-  <si>
     <t>Patient.identifier.id</t>
   </si>
   <si>
-    <t>Patient.identifier:PIC.extension</t>
-  </si>
-  <si>
     <t>Patient.identifier.extension</t>
   </si>
   <si>
-    <t>Patient.identifier:PIC.use</t>
-  </si>
-  <si>
     <t>Patient.identifier.use</t>
   </si>
   <si>
@@ -921,9 +907,6 @@
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
-    <t>official</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -937,9 +920,6 @@
   </si>
   <si>
     <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Patient.identifier:PIC.type</t>
   </si>
   <si>
     <t>Patient.identifier.type</t>
@@ -973,123 +953,6 @@
     <t>CX.5</t>
   </si>
   <si>
-    <t>Patient.identifier:PIC.type.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier.type.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier:PIC.type.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier.type.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier:PIC.type.coding</t>
-  </si>
-  <si>
-    <t>Patient.identifier.type.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Patient.identifier:PIC.type.coding.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier.type.coding.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier:PIC.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier:PIC.type.coding.system</t>
-  </si>
-  <si>
-    <t>Patient.identifier.type.coding.system</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/v2-0203</t>
-  </si>
-  <si>
-    <t>Patient.identifier:PIC.type.coding.version</t>
-  </si>
-  <si>
-    <t>Patient.identifier.type.coding.version</t>
-  </si>
-  <si>
-    <t>Patient.identifier:PIC.type.coding.code</t>
-  </si>
-  <si>
-    <t>Patient.identifier.type.coding.code</t>
-  </si>
-  <si>
-    <t>NNFIN</t>
-  </si>
-  <si>
-    <t>Patient.identifier:PIC.type.coding.display</t>
-  </si>
-  <si>
-    <t>Patient.identifier.type.coding.display</t>
-  </si>
-  <si>
-    <t>Patient.identifier:PIC.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Patient.identifier.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Patient.identifier:PIC.type.text</t>
-  </si>
-  <si>
-    <t>Patient.identifier.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>Patient.identifier:PIC.system</t>
-  </si>
-  <si>
     <t>Patient.identifier.system</t>
   </si>
   <si>
@@ -1105,9 +968,6 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>urn:oid:1.2.246.21</t>
-  </si>
-  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
@@ -1120,13 +980,10 @@
     <t>CX.4 / EI-2-4</t>
   </si>
   <si>
-    <t>Patient.identifier:PIC.value</t>
-  </si>
-  <si>
     <t>Patient.identifier.value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
+    <t>The value that is unique within the system.</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -1145,9 +1002,6 @@
   </si>
   <si>
     <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>Patient.identifier:PIC.period</t>
   </si>
   <si>
     <t>Patient.identifier.period</t>
@@ -1172,9 +1026,6 @@
     <t>CX.7 + CX.8</t>
   </si>
   <si>
-    <t>Patient.identifier:PIC.assigner</t>
-  </si>
-  <si>
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
@@ -1198,6 +1049,162 @@
   </si>
   <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PIC</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>An identifier for this patient</t>
+  </si>
+  <si>
+    <t>An identifier for this patient.</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PIC.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PIC.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PIC.use</t>
+  </si>
+  <si>
+    <t>official</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PIC.type</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PIC.type.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PIC.type.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PIC.type.coding</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PIC.type.coding.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.coding.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PIC.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PIC.type.coding.system</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.coding.system</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0203</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PIC.type.coding.version</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.coding.version</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PIC.type.coding.code</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.coding.code</t>
+  </si>
+  <si>
+    <t>NNFIN</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PIC.type.coding.display</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.coding.display</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PIC.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PIC.type.text</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PIC.system</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.246.21</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PIC.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PIC.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier:PIC.assigner</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -1221,6 +1228,10 @@
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ipa-pat-4:If Patient.link is present, then Patient.active SHALL be present {link.exists() implies active.exists()}</t>
+  </si>
+  <si>
     <t>statusCode</t>
   </si>
   <si>
@@ -1244,6 +1255,10 @@
   </si>
   <si>
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ipa-pat-2:Either Patient.name.given and/or Patient.name.family and/or Patient.name.text SHALL be present or a Data Absent Reason Extension SHALL be present. {(family.exists() or given.exists() or text.exists()) xor extension.where(url='http://hl7.org/fhir/StructureDefinition/data-absent-reason').exists()}ipa-pat-3:To be usable for a wide range of internationally available applications, the Patient.name.text SHOULD be present. {text.exists()}</t>
   </si>
   <si>
     <t>name</t>
@@ -1784,6 +1799,10 @@
     <t>There are multiple use cases:   
 * Duplicate patient records due to the clerical errors associated with the difficulties of identifying humans consistently, and 
 * Distribution of patient information across multiple servers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ipa-pat-4
+</t>
   </si>
   <si>
     <t>outboundLink</t>
@@ -1958,6 +1977,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -2134,7 +2168,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO85"/>
+  <dimension ref="A1:AO93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2143,17 +2177,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.92578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.5390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.48046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.16796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.2421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.94140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="234.6796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="202.4375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2162,27 +2196,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.46484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="116.65625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.25390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="100.62890625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="151.51171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="39.390625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="43.81640625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.4375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="130.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.98046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="37.796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.4296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2310,7 +2344,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2425,7 +2459,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>88</v>
       </c>
@@ -2542,7 +2576,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>96</v>
       </c>
@@ -2657,7 +2691,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>102</v>
       </c>
@@ -2772,7 +2806,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>108</v>
       </c>
@@ -2889,7 +2923,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>119</v>
       </c>
@@ -3006,7 +3040,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
@@ -3123,7 +3157,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>130</v>
       </c>
@@ -3240,7 +3274,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>136</v>
       </c>
@@ -3357,7 +3391,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>142</v>
       </c>
@@ -3472,7 +3506,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>152</v>
       </c>
@@ -3591,7 +3625,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>155</v>
       </c>
@@ -3706,7 +3740,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>157</v>
       </c>
@@ -3823,7 +3857,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>159</v>
       </c>
@@ -3942,7 +3976,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>169</v>
       </c>
@@ -4059,7 +4093,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>177</v>
       </c>
@@ -4176,7 +4210,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>186</v>
       </c>
@@ -4293,7 +4327,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>194</v>
       </c>
@@ -4412,7 +4446,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>204</v>
       </c>
@@ -4529,7 +4563,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>212</v>
       </c>
@@ -4646,7 +4680,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>217</v>
       </c>
@@ -4763,7 +4797,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>225</v>
       </c>
@@ -4880,7 +4914,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>233</v>
       </c>
@@ -4997,7 +5031,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>241</v>
       </c>
@@ -5110,7 +5144,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>245</v>
       </c>
@@ -5227,7 +5261,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>251</v>
       </c>
@@ -5325,7 +5359,7 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>118</v>
@@ -5346,7 +5380,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>257</v>
       </c>
@@ -5463,7 +5497,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>262</v>
       </c>
@@ -5582,7 +5616,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>267</v>
       </c>
@@ -5595,13 +5629,13 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>81</v>
@@ -5681,34 +5715,32 @@
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>274</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="C31" t="s" s="2">
         <v>279</v>
       </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5726,21 +5758,19 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>268</v>
+        <v>103</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>104</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
+        <v>105</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>271</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5788,53 +5818,53 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>267</v>
+        <v>106</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>274</v>
+        <v>107</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -5846,15 +5876,17 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5891,31 +5923,31 @@
         <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>107</v>
@@ -5933,46 +5965,48 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>111</v>
+        <v>282</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>112</v>
+        <v>283</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5996,46 +6030,46 @@
         <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>117</v>
+        <v>289</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>107</v>
+        <v>290</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>81</v>
@@ -6044,18 +6078,18 @@
         <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6063,7 +6097,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>89</v>
@@ -6072,25 +6106,25 @@
         <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>179</v>
+        <v>292</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -6100,7 +6134,7 @@
         <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>81</v>
@@ -6115,13 +6149,13 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -6139,7 +6173,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6154,7 +6188,7 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>81</v>
@@ -6163,18 +6197,18 @@
         <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6197,19 +6231,19 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>300</v>
+        <v>131</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -6222,7 +6256,7 @@
         <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>81</v>
@@ -6234,13 +6268,13 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>305</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>306</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
@@ -6273,7 +6307,7 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>81</v>
@@ -6282,15 +6316,15 @@
         <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>310</v>
@@ -6301,30 +6335,32 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>104</v>
+        <v>311</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6337,7 +6373,7 @@
         <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>81</v>
@@ -6373,7 +6409,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>106</v>
+        <v>315</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6385,10 +6421,10 @@
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>107</v>
+        <v>316</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>81</v>
@@ -6397,29 +6433,29 @@
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>317</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -6428,20 +6464,18 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>110</v>
+        <v>319</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>111</v>
+        <v>320</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6478,34 +6512,34 @@
         <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>117</v>
+        <v>322</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>107</v>
+        <v>323</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>81</v>
@@ -6514,18 +6548,18 @@
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>81</v>
+        <v>324</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6536,7 +6570,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
@@ -6548,20 +6582,18 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>143</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6609,13 +6641,13 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
@@ -6624,7 +6656,7 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>81</v>
@@ -6633,20 +6665,22 @@
         <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6658,25 +6692,27 @@
         <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>103</v>
+        <v>268</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>104</v>
+        <v>335</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>105</v>
+        <v>336</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6724,53 +6760,53 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>106</v>
+        <v>267</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>81</v>
+        <v>274</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>107</v>
+        <v>275</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>81</v>
@@ -6782,17 +6818,15 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6829,31 +6863,31 @@
         <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>107</v>
@@ -6871,23 +6905,23 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -6896,23 +6930,21 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6921,7 +6953,7 @@
         <v>81</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>328</v>
+        <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>81</v>
@@ -6948,34 +6980,34 @@
         <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>81</v>
@@ -6984,18 +7016,18 @@
         <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7003,7 +7035,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>89</v>
@@ -7012,24 +7044,26 @@
         <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>171</v>
+        <v>282</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>172</v>
+        <v>283</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
       </c>
@@ -7038,7 +7072,7 @@
         <v>81</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>81</v>
+        <v>340</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>81</v>
@@ -7053,13 +7087,13 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -7077,7 +7111,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>174</v>
+        <v>289</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7092,7 +7126,7 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>81</v>
@@ -7101,18 +7135,18 @@
         <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7135,17 +7169,19 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>179</v>
+        <v>292</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>180</v>
+        <v>293</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>182</v>
+        <v>296</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -7155,7 +7191,7 @@
         <v>81</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>333</v>
+        <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>81</v>
@@ -7170,13 +7206,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -7194,7 +7230,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>183</v>
+        <v>299</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7209,7 +7245,7 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>184</v>
+        <v>290</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>81</v>
@@ -7218,18 +7254,18 @@
         <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7249,21 +7285,19 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>188</v>
+        <v>104</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>189</v>
+        <v>105</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7311,7 +7345,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7323,10 +7357,10 @@
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>81</v>
@@ -7335,29 +7369,29 @@
         <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -7366,23 +7400,21 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>198</v>
+        <v>112</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7418,34 +7450,34 @@
         <v>81</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>81</v>
@@ -7454,18 +7486,18 @@
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7476,7 +7508,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -7488,19 +7520,19 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7549,13 +7581,13 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
@@ -7564,7 +7596,7 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>81</v>
@@ -7573,18 +7605,18 @@
         <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7604,23 +7636,19 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>349</v>
+        <v>104</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>81</v>
       </c>
@@ -7629,10 +7657,10 @@
         <v>81</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>353</v>
+        <v>81</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>354</v>
+        <v>81</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>81</v>
@@ -7668,7 +7696,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>355</v>
+        <v>106</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7680,10 +7708,10 @@
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>356</v>
+        <v>107</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>81</v>
@@ -7692,29 +7720,29 @@
         <v>81</v>
       </c>
       <c r="AN47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AO47" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="B48" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>81</v>
@@ -7723,19 +7751,19 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>111</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>361</v>
+        <v>112</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>362</v>
+        <v>113</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7749,7 +7777,7 @@
         <v>81</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>81</v>
@@ -7773,34 +7801,34 @@
         <v>81</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>364</v>
+        <v>117</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>365</v>
+        <v>107</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>81</v>
@@ -7809,18 +7837,18 @@
         <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7843,16 +7871,20 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>369</v>
+        <v>131</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>370</v>
+        <v>161</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7861,7 +7893,7 @@
         <v>81</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>81</v>
+        <v>361</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>81</v>
@@ -7900,7 +7932,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>372</v>
+        <v>166</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7915,7 +7947,7 @@
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>373</v>
+        <v>167</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>81</v>
@@ -7924,18 +7956,18 @@
         <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>374</v>
+        <v>168</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7958,16 +7990,16 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>377</v>
+        <v>103</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>378</v>
+        <v>171</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>379</v>
+        <v>172</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>380</v>
+        <v>173</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8017,7 +8049,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>381</v>
+        <v>174</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8032,7 +8064,7 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>382</v>
+        <v>175</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>81</v>
@@ -8041,18 +8073,18 @@
         <v>81</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>383</v>
+        <v>176</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8069,37 +8101,33 @@
         <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>385</v>
+        <v>180</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>388</v>
+        <v>182</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q51" t="s" s="2">
-        <v>389</v>
-      </c>
+      <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>81</v>
@@ -8138,7 +8166,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>384</v>
+        <v>183</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8153,27 +8181,27 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>390</v>
+        <v>184</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>391</v>
+        <v>81</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8184,7 +8212,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>81</v>
@@ -8196,19 +8224,17 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>393</v>
+        <v>103</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>394</v>
+        <v>188</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>397</v>
+        <v>190</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8257,13 +8283,13 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>392</v>
+        <v>191</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>81</v>
@@ -8272,27 +8298,27 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>398</v>
+        <v>192</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>399</v>
+        <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>400</v>
+        <v>193</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8303,7 +8329,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -8315,19 +8341,19 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>402</v>
+        <v>196</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>403</v>
+        <v>197</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>404</v>
+        <v>198</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>405</v>
+        <v>199</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>406</v>
+        <v>200</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -8376,13 +8402,13 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>401</v>
+        <v>201</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
@@ -8391,27 +8417,27 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>407</v>
+        <v>202</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>408</v>
+        <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>409</v>
+        <v>203</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8434,19 +8460,19 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>412</v>
+        <v>374</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>414</v>
+        <v>376</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8471,13 +8497,13 @@
         <v>81</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>415</v>
+        <v>81</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>416</v>
+        <v>81</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>81</v>
@@ -8495,7 +8521,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8510,27 +8536,27 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>418</v>
+        <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>420</v>
+        <v>301</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8553,19 +8579,19 @@
         <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>421</v>
+        <v>131</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>422</v>
+        <v>302</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>423</v>
+        <v>303</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>424</v>
+        <v>304</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8575,10 +8601,10 @@
         <v>81</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>81</v>
+        <v>381</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>81</v>
@@ -8614,7 +8640,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>420</v>
+        <v>307</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8629,27 +8655,27 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>426</v>
+        <v>308</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>427</v>
+        <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>428</v>
+        <v>309</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>429</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>430</v>
+        <v>382</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>430</v>
+        <v>310</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8657,35 +8683,33 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>431</v>
+        <v>103</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>432</v>
+        <v>311</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>433</v>
+        <v>312</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>81</v>
       </c>
@@ -8697,7 +8721,7 @@
         <v>81</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>81</v>
@@ -8733,7 +8757,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>430</v>
+        <v>315</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8748,27 +8772,27 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>436</v>
+        <v>316</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>437</v>
+        <v>317</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>438</v>
+        <v>318</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8779,7 +8803,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
@@ -8791,20 +8815,16 @@
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>439</v>
+        <v>319</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>81</v>
       </c>
@@ -8852,13 +8872,13 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>438</v>
+        <v>322</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>81</v>
@@ -8867,27 +8887,27 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>444</v>
+        <v>323</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>445</v>
+        <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>446</v>
+        <v>324</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>447</v>
+        <v>325</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8907,21 +8927,21 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>448</v>
+        <v>327</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
       </c>
@@ -8945,13 +8965,13 @@
         <v>81</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>451</v>
+        <v>81</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>452</v>
+        <v>81</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>81</v>
@@ -8969,7 +8989,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>447</v>
+        <v>330</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8984,27 +9004,27 @@
         <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>453</v>
+        <v>331</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>454</v>
+        <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>455</v>
+        <v>332</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>456</v>
+        <v>385</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>456</v>
+        <v>385</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9018,33 +9038,35 @@
         <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>457</v>
+        <v>196</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>458</v>
+        <v>386</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>459</v>
+        <v>387</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>460</v>
+        <v>388</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>461</v>
+        <v>389</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="R59" t="s" s="2">
         <v>81</v>
       </c>
@@ -9088,7 +9110,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>456</v>
+        <v>385</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9100,30 +9122,30 @@
         <v>81</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>101</v>
+        <v>391</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>462</v>
+        <v>392</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>81</v>
+        <v>393</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>463</v>
+        <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>464</v>
+        <v>394</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>464</v>
+        <v>394</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9137,28 +9159,28 @@
         <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>465</v>
+        <v>395</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>466</v>
+        <v>396</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>467</v>
+        <v>397</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>468</v>
+        <v>398</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>469</v>
+        <v>399</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -9207,7 +9229,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>464</v>
+        <v>394</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9219,30 +9241,30 @@
         <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>101</v>
+        <v>400</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>470</v>
+        <v>401</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>107</v>
+        <v>402</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>471</v>
+        <v>403</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>472</v>
+        <v>404</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>472</v>
+        <v>404</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9262,22 +9284,22 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>473</v>
+        <v>405</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>474</v>
+        <v>406</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>475</v>
+        <v>407</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>476</v>
+        <v>408</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>477</v>
+        <v>409</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -9326,7 +9348,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>472</v>
+        <v>404</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9338,30 +9360,30 @@
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>478</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>479</v>
+        <v>410</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>107</v>
+        <v>411</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>81</v>
+        <v>412</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>480</v>
+        <v>413</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>480</v>
+        <v>413</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9375,25 +9397,29 @@
         <v>89</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>104</v>
+        <v>414</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9417,13 +9443,13 @@
         <v>81</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>81</v>
+        <v>418</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
@@ -9441,7 +9467,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>106</v>
+        <v>413</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9453,64 +9479,66 @@
         <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>107</v>
+        <v>420</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>81</v>
+        <v>421</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>81</v>
+        <v>422</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>481</v>
+        <v>423</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>481</v>
+        <v>423</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>110</v>
+        <v>424</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>111</v>
+        <v>425</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>112</v>
+        <v>426</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9558,53 +9586,53 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>117</v>
+        <v>423</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>107</v>
+        <v>429</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>81</v>
+        <v>430</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>81</v>
+        <v>431</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>81</v>
+        <v>432</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>482</v>
+        <v>433</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>482</v>
+        <v>433</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>483</v>
+        <v>81</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>81</v>
@@ -9616,19 +9644,19 @@
         <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>110</v>
+        <v>434</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>484</v>
+        <v>435</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>485</v>
+        <v>436</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>113</v>
+        <v>437</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>265</v>
+        <v>438</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>81</v>
@@ -9677,42 +9705,42 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>486</v>
+        <v>433</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>240</v>
+        <v>439</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>81</v>
+        <v>440</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>487</v>
+        <v>441</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>487</v>
+        <v>441</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9732,20 +9760,22 @@
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>300</v>
+        <v>442</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>488</v>
+        <v>443</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="O65" t="s" s="2">
-        <v>490</v>
+        <v>446</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>81</v>
@@ -9770,13 +9800,13 @@
         <v>81</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>491</v>
+        <v>81</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>492</v>
+        <v>81</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>81</v>
@@ -9794,7 +9824,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>487</v>
+        <v>441</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9809,27 +9839,27 @@
         <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>493</v>
+        <v>447</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>107</v>
+        <v>448</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>494</v>
+        <v>449</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>495</v>
+        <v>450</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>495</v>
+        <v>450</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9852,17 +9882,17 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>393</v>
+        <v>292</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>496</v>
+        <v>451</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>497</v>
+        <v>452</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>498</v>
+        <v>453</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>81</v>
@@ -9887,13 +9917,13 @@
         <v>81</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>81</v>
+        <v>454</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>81</v>
+        <v>455</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>81</v>
@@ -9911,7 +9941,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>495</v>
+        <v>450</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9926,27 +9956,27 @@
         <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>107</v>
+        <v>457</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9957,7 +9987,7 @@
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>81</v>
@@ -9969,19 +9999,19 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>402</v>
+        <v>460</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>501</v>
+        <v>461</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>502</v>
+        <v>462</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>503</v>
+        <v>463</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>406</v>
+        <v>464</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>81</v>
@@ -10030,13 +10060,13 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>81</v>
@@ -10045,7 +10075,7 @@
         <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>407</v>
+        <v>465</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>107</v>
@@ -10054,18 +10084,18 @@
         <v>81</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>504</v>
+        <v>466</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>505</v>
+        <v>467</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>505</v>
+        <v>467</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10076,7 +10106,7 @@
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>81</v>
@@ -10088,17 +10118,19 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>506</v>
+        <v>469</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O68" t="s" s="2">
-        <v>508</v>
+        <v>472</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>81</v>
@@ -10147,13 +10179,13 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>505</v>
+        <v>467</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>81</v>
@@ -10162,7 +10194,7 @@
         <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>107</v>
@@ -10171,18 +10203,18 @@
         <v>81</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10193,7 +10225,7 @@
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>81</v>
@@ -10205,17 +10237,19 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>179</v>
+        <v>476</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>411</v>
+        <v>477</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="O69" t="s" s="2">
-        <v>512</v>
+        <v>480</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -10240,13 +10274,13 @@
         <v>81</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>415</v>
+        <v>81</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>416</v>
+        <v>81</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>81</v>
@@ -10264,22 +10298,22 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>101</v>
+        <v>481</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>417</v>
+        <v>482</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>107</v>
@@ -10288,18 +10322,18 @@
         <v>81</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>513</v>
+        <v>81</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10322,18 +10356,16 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>377</v>
+        <v>103</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>515</v>
+        <v>104</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>516</v>
+        <v>105</v>
       </c>
       <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>517</v>
-      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>81</v>
       </c>
@@ -10381,7 +10413,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>514</v>
+        <v>106</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10390,44 +10422,44 @@
         <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>518</v>
+        <v>81</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>519</v>
+        <v>107</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>520</v>
+        <v>81</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>521</v>
+        <v>484</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>521</v>
+        <v>484</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>81</v>
@@ -10439,15 +10471,17 @@
         <v>81</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>369</v>
+        <v>110</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>522</v>
+        <v>111</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>81</v>
@@ -10496,25 +10530,25 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>521</v>
+        <v>117</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>524</v>
+        <v>107</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>81</v>
@@ -10526,16 +10560,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>81</v>
+        <v>486</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10548,25 +10582,25 @@
         <v>81</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>473</v>
+        <v>110</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>527</v>
+        <v>488</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>528</v>
+        <v>113</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>529</v>
+        <v>265</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>81</v>
@@ -10615,7 +10649,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10627,13 +10661,13 @@
         <v>81</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>530</v>
+        <v>240</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>531</v>
+        <v>81</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>81</v>
@@ -10645,12 +10679,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>532</v>
+        <v>490</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>532</v>
+        <v>490</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10661,7 +10695,7 @@
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>81</v>
@@ -10673,16 +10707,18 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>103</v>
+        <v>292</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>104</v>
+        <v>491</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>105</v>
+        <v>492</v>
       </c>
       <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>493</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>81</v>
       </c>
@@ -10706,13 +10742,13 @@
         <v>81</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>81</v>
+        <v>494</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>81</v>
+        <v>495</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>81</v>
@@ -10730,53 +10766,53 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>106</v>
+        <v>490</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AL73" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>81</v>
+        <v>497</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>533</v>
+        <v>498</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>533</v>
+        <v>498</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>81</v>
@@ -10788,18 +10824,18 @@
         <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>110</v>
+        <v>395</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>111</v>
+        <v>499</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>81</v>
       </c>
@@ -10847,46 +10883,46 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>117</v>
+        <v>498</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AL74" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AM74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>81</v>
+        <v>502</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>534</v>
+        <v>503</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>534</v>
+        <v>503</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>483</v>
+        <v>81</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10899,25 +10935,25 @@
         <v>81</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>110</v>
+        <v>405</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>113</v>
+        <v>506</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>265</v>
+        <v>409</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -10966,7 +11002,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10978,30 +11014,30 @@
         <v>81</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>240</v>
+        <v>410</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>81</v>
+        <v>507</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11009,7 +11045,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>89</v>
@@ -11024,19 +11060,17 @@
         <v>81</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>300</v>
+        <v>442</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>536</v>
+        <v>509</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>539</v>
+        <v>511</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>81</v>
@@ -11061,13 +11095,13 @@
         <v>81</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>81</v>
@@ -11085,10 +11119,10 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>89</v>
@@ -11100,27 +11134,27 @@
         <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>540</v>
+        <v>447</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>541</v>
+        <v>107</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11143,19 +11177,17 @@
         <v>81</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>544</v>
+        <v>414</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>546</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>81</v>
@@ -11180,13 +11212,13 @@
         <v>81</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>81</v>
+        <v>418</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>81</v>
@@ -11204,7 +11236,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11219,38 +11251,38 @@
         <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>548</v>
+        <v>420</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>549</v>
+        <v>107</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>550</v>
+        <v>516</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>551</v>
+        <v>517</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>551</v>
+        <v>517</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>552</v>
+        <v>81</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>81</v>
@@ -11262,18 +11294,18 @@
         <v>81</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>553</v>
+        <v>326</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>554</v>
+        <v>518</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>519</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>81</v>
       </c>
@@ -11321,22 +11353,22 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>551</v>
+        <v>517</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>81</v>
+        <v>521</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>557</v>
+        <v>522</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>107</v>
@@ -11345,18 +11377,18 @@
         <v>81</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>558</v>
+        <v>523</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>559</v>
+        <v>524</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>559</v>
+        <v>524</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11376,23 +11408,19 @@
         <v>81</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>560</v>
+        <v>319</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>561</v>
+        <v>525</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>564</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>81</v>
       </c>
@@ -11440,7 +11468,7 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>559</v>
+        <v>524</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11455,10 +11483,10 @@
         <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>565</v>
+        <v>107</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>81</v>
@@ -11470,12 +11498,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>566</v>
+        <v>528</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>566</v>
+        <v>528</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11492,25 +11520,25 @@
         <v>81</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>567</v>
+        <v>529</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>568</v>
+        <v>530</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>81</v>
@@ -11559,7 +11587,7 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>566</v>
+        <v>528</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11574,10 +11602,10 @@
         <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>571</v>
+        <v>533</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>107</v>
+        <v>534</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>81</v>
@@ -11589,12 +11617,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>572</v>
+        <v>535</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>572</v>
+        <v>535</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11704,12 +11732,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>573</v>
+        <v>536</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>573</v>
+        <v>536</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11821,16 +11849,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>574</v>
+        <v>537</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>574</v>
+        <v>537</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11852,10 +11880,10 @@
         <v>110</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>113</v>
@@ -11910,7 +11938,7 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11940,12 +11968,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>575</v>
+        <v>538</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>575</v>
+        <v>538</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11965,21 +11993,23 @@
         <v>81</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>576</v>
+        <v>292</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>578</v>
+        <v>540</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>81</v>
       </c>
@@ -12003,13 +12033,13 @@
         <v>81</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>81</v>
@@ -12027,7 +12057,7 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>575</v>
+        <v>538</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>89</v>
@@ -12042,27 +12072,27 @@
         <v>101</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>274</v>
+        <v>543</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>107</v>
+        <v>544</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>580</v>
+        <v>545</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>581</v>
+        <v>546</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>581</v>
+        <v>546</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12070,7 +12100,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>89</v>
@@ -12082,19 +12112,23 @@
         <v>81</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>582</v>
+        <v>547</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>81</v>
       </c>
@@ -12118,13 +12152,13 @@
         <v>81</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>583</v>
+        <v>81</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>584</v>
+        <v>81</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>81</v>
@@ -12142,10 +12176,10 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>581</v>
+        <v>546</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>89</v>
@@ -12157,22 +12191,978 @@
         <v>101</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="AL85" t="s" s="2">
+      <c r="B93" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AL93" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AM85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO85" t="s" s="2">
+      <c r="AM93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO93" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AO93">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI92">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>